--- a/KosmosV4System/doc/sourcing/Nomenclature_KOSMOS4.0_projet_IUEM.xlsx
+++ b/KosmosV4System/doc/sourcing/Nomenclature_KOSMOS4.0_projet_IUEM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ofauvarq\Documents\GitHub\DocV4\docs\pictures\sourcing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ofauvarq\Documents\GitHub\DocV4\KosmosV4System\doc\sourcing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3714EE34-9BC9-4DD6-9C64-C4097D4B92A6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00D5FF00-6636-4B87-AA68-9B51354FF11C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6350" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2131,9 +2131,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFC181"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G73" sqref="G73"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G68" sqref="G68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.58203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2169,7 +2169,7 @@
       </c>
       <c r="E1" s="10">
         <f ca="1">TODAY()</f>
-        <v>45743</v>
+        <v>45854</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>373</v>
@@ -37072,7 +37072,7 @@
       <c r="F67" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="G67" s="21" t="s">
+      <c r="G67" s="71" t="s">
         <v>209</v>
       </c>
       <c r="H67" s="24">
@@ -37105,7 +37105,7 @@
       <c r="F68" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="G68" s="21" t="s">
+      <c r="G68" s="71" t="s">
         <v>212</v>
       </c>
       <c r="H68" s="24">
